--- a/biology/Médecine/1696_en_santé_et_médecine/1696_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1696_en_santé_et_médecine/1696_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1696_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1696_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1696 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1696_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1696_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1696_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1696_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ole Borch (1626-1690): Conspectus chemicorum scriptorum, œuvre posthume[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ole Borch (1626-1690): Conspectus chemicorum scriptorum, œuvre posthume.</t>
         </is>
       </c>
     </row>
@@ -549,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1696_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1696_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,6 +584,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -575,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1696_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1696_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -593,9 +611,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>24 mars : Madame de Miramion (née en 1629), aristocrate et religieuse française, connue pour avoir participé à soulager la misère sanitaire de son temps[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>24 mars : Madame de Miramion (née en 1629), aristocrate et religieuse française, connue pour avoir participé à soulager la misère sanitaire de son temps.</t>
         </is>
       </c>
     </row>
